--- a/Excel-XLSX/UN-MTS.xlsx
+++ b/Excel-XLSX/UN-MTS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,163 @@
     <t>1</t>
   </si>
   <si>
-    <t>X6RSCv</t>
+    <t>u1LOKQ</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>1999</t>
@@ -102,151 +258,10 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>MTS</t>
-  </si>
-  <si>
-    <t>MUS</t>
+    <t>UNK</t>
   </si>
   <si>
     <t>43</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>PHL</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
 </sst>
 </file>
@@ -769,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>34</v>
@@ -786,22 +801,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -816,7 +831,7 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -837,10 +852,10 @@
         <v>34</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -854,22 +869,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -884,10 +899,10 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>34</v>
@@ -905,10 +920,10 @@
         <v>34</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -922,22 +937,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -952,7 +967,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>34</v>
@@ -973,10 +988,10 @@
         <v>34</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -990,22 +1005,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1020,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>34</v>
@@ -1041,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1058,22 +1073,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1088,13 +1103,13 @@
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>34</v>
@@ -1109,10 +1124,10 @@
         <v>34</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1126,22 +1141,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1156,10 +1171,10 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>34</v>
@@ -1177,7 +1192,7 @@
         <v>34</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>34</v>
@@ -1194,22 +1209,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1224,7 +1239,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>34</v>
@@ -1245,10 +1260,10 @@
         <v>34</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1262,22 +1277,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1292,10 +1307,10 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>34</v>
@@ -1313,10 +1328,10 @@
         <v>34</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1330,22 +1345,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1360,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>34</v>
@@ -1381,10 +1396,10 @@
         <v>34</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1398,22 +1413,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1428,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>34</v>
@@ -1449,10 +1464,10 @@
         <v>34</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1466,22 +1481,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1496,7 +1511,7 @@
         <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>34</v>
@@ -1517,10 +1532,10 @@
         <v>34</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1534,22 +1549,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1564,7 +1579,7 @@
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -1585,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1602,22 +1617,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1632,13 +1647,13 @@
         <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>34</v>
@@ -1653,10 +1668,10 @@
         <v>34</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1670,22 +1685,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1700,10 +1715,10 @@
         <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>34</v>
@@ -1721,10 +1736,10 @@
         <v>34</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -1738,22 +1753,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -1768,7 +1783,7 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>34</v>
@@ -1789,10 +1804,10 @@
         <v>34</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -1809,19 +1824,19 @@
         <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -1836,7 +1851,7 @@
         <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
@@ -1857,10 +1872,10 @@
         <v>34</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1874,22 +1889,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -1904,7 +1919,7 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>34</v>
@@ -1925,10 +1940,10 @@
         <v>34</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MTS.xlsx
+++ b/Excel-XLSX/UN-MTS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>u1LOKQ</t>
+    <t>1cLaLs</t>
   </si>
   <si>
     <t>2023</t>
@@ -174,9 +174,24 @@
     <t>7</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
@@ -186,7 +201,7 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>9</t>
+    <t>12</t>
   </si>
   <si>
     <t>151</t>
@@ -201,7 +216,7 @@
     <t>PHL</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>159</t>
@@ -216,12 +231,12 @@
     <t>ZAF</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
@@ -234,16 +249,19 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>1999</t>
@@ -646,7 +664,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -854,8 +872,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -922,8 +940,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -990,8 +1008,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1058,8 +1076,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1126,8 +1144,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>35</v>
+      <c r="V7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1209,22 +1227,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1239,10 +1257,10 @@
         <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>34</v>
@@ -1262,8 +1280,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>35</v>
+      <c r="V9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1277,22 +1295,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1330,8 +1348,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>35</v>
+      <c r="V10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1348,19 +1366,19 @@
         <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1398,8 +1416,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>35</v>
+      <c r="V11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1416,16 +1434,16 @@
         <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>60</v>
@@ -1443,10 +1461,10 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>34</v>
@@ -1466,8 +1484,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1511,10 +1529,10 @@
         <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>34</v>
@@ -1534,8 +1552,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1552,19 +1570,19 @@
         <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1602,8 +1620,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>35</v>
+      <c r="V14" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1620,19 +1638,19 @@
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1670,8 +1688,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>35</v>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1685,22 +1703,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1715,10 +1733,10 @@
         <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>34</v>
@@ -1738,8 +1756,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>35</v>
+      <c r="V16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1759,16 +1777,16 @@
         <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -1783,10 +1801,10 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>34</v>
@@ -1806,8 +1824,8 @@
       <c r="U17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>35</v>
+      <c r="V17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1821,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -1874,8 +1892,8 @@
       <c r="U18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>35</v>
+      <c r="V18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -1889,22 +1907,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -1919,7 +1937,7 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>34</v>
@@ -1942,8 +1960,144 @@
       <c r="U19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MTS.xlsx
+++ b/Excel-XLSX/UN-MTS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,162 @@
     <t>1cLaLs</t>
   </si>
   <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
@@ -105,79 +261,10 @@
     <t>CAF</t>
   </si>
   <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>MTS</t>
-  </si>
-  <si>
-    <t>MUS</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>117</t>
@@ -192,94 +279,58 @@
     <t>MDG</t>
   </si>
   <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>PHL</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>43</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
   </si>
 </sst>
 </file>
@@ -664,7 +715,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -893,16 +944,16 @@
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -917,10 +968,10 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>34</v>
@@ -955,22 +1006,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -1023,10 +1074,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
@@ -1053,7 +1104,7 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>34</v>
@@ -1091,22 +1142,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1121,13 +1172,13 @@
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>34</v>
@@ -1159,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
@@ -1189,10 +1240,10 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>34</v>
@@ -1227,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1257,10 +1308,10 @@
         <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>34</v>
@@ -1295,22 +1346,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1325,10 +1376,10 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>34</v>
@@ -1363,22 +1414,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1393,7 +1444,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>34</v>
@@ -1431,22 +1482,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1461,7 +1512,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>34</v>
@@ -1499,22 +1550,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1529,10 +1580,10 @@
         <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>34</v>
@@ -1567,22 +1618,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1597,7 +1648,7 @@
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -1638,19 +1689,19 @@
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1665,13 +1716,13 @@
         <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>34</v>
@@ -1703,22 +1754,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1733,7 +1784,7 @@
         <v>32</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
@@ -1771,22 +1822,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -1801,10 +1852,10 @@
         <v>32</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>34</v>
@@ -1839,22 +1890,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -1869,7 +1920,7 @@
         <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
@@ -1907,22 +1958,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -1937,10 +1988,10 @@
         <v>32</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
@@ -1975,22 +2026,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2008,7 +2059,7 @@
         <v>34</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>34</v>
@@ -2043,22 +2094,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2073,10 +2124,10 @@
         <v>32</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>34</v>
@@ -2097,6 +2148,482 @@
         <v>35</v>
       </c>
       <c r="V21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-MTS.xlsx
+++ b/Excel-XLSX/UN-MTS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>1cLaLs</t>
+    <t>prA9X8</t>
   </si>
   <si>
     <t>1999</t>
@@ -300,12 +300,27 @@
     <t>23</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>141</t>
   </si>
   <si>
@@ -318,10 +333,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>199</t>
@@ -715,7 +727,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2195,7 +2207,7 @@
         <v>34</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>34</v>
@@ -2304,16 +2316,16 @@
         <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2331,7 +2343,7 @@
         <v>34</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>34</v>
@@ -2366,22 +2378,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2396,10 +2408,10 @@
         <v>32</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>34</v>
@@ -2434,22 +2446,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -2467,7 +2479,7 @@
         <v>34</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>34</v>
@@ -2508,16 +2520,16 @@
         <v>89</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -2570,22 +2582,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -2624,6 +2636,74 @@
         <v>35</v>
       </c>
       <c r="V28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V29" s="2" t="s">
         <v>34</v>
       </c>
     </row>
